--- a/Data/FoodAvailabilityData/RedMeatPoultryFish.xlsx
+++ b/Data/FoodAvailabilityData/RedMeatPoultryFish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dinesh/Dinesh/Agriculture Production/AgricultureProduction/Data/FoodAvailabilityData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52045100-5D42-FF44-9EAF-DCA35431743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{729DFC3A-6F7E-1344-A1D6-C53B554C6B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TableOfContents" sheetId="24" r:id="rId1"/>
@@ -10668,9 +10668,9 @@
   </sheetPr>
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.75" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16022,14 +16022,15 @@
   <sheetViews>
     <sheetView showZeros="0" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.75" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" style="10" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
-    <col min="3" max="10" width="12.75" style="7" customWidth="1"/>
+    <col min="3" max="9" width="12.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="6.25" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="23" width="12.75" style="8" customWidth="1"/>
     <col min="24" max="16384" width="12.75" style="9"/>
   </cols>
@@ -20761,8 +20762,8 @@
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView showZeros="0" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <pane ySplit="6" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.75" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26527,8 +26528,8 @@
   </sheetPr>
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
